--- a/FileInput/DataEngine.xlsx
+++ b/FileInput/DataEngine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="36" windowWidth="16260" windowHeight="5856"/>
+    <workbookView xWindow="384" yWindow="36" windowWidth="16260" windowHeight="5856" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MasterTestCase" sheetId="1" r:id="rId1"/>
@@ -111,9 +111,6 @@
     <t>Enter User Name</t>
   </si>
   <si>
-    <t>textAction</t>
-  </si>
-  <si>
     <t>Enter Password</t>
   </si>
   <si>
@@ -163,6 +160,9 @@
   </si>
   <si>
     <t>closeBrowser</t>
+  </si>
+  <si>
+    <t>typeAction</t>
   </si>
 </sst>
 </file>
@@ -541,7 +541,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -637,8 +637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -646,8 +646,8 @@
     <col min="1" max="1" width="30.21875" customWidth="1"/>
     <col min="2" max="2" width="25.44140625" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="36.33203125" customWidth="1"/>
-    <col min="5" max="5" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="51.6640625" customWidth="1"/>
+    <col min="5" max="5" width="40.77734375" customWidth="1"/>
     <col min="6" max="6" width="14.6640625" customWidth="1"/>
     <col min="7" max="7" width="23.33203125" customWidth="1"/>
   </cols>
@@ -731,7 +731,7 @@
         <v>30</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>28</v>
@@ -740,40 +740,40 @@
         <v>29</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" ht="21">
       <c r="A6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" ht="21">
       <c r="A7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>22</v>
@@ -782,16 +782,16 @@
     </row>
     <row r="8" spans="1:6" ht="21">
       <c r="A8" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>22</v>
@@ -800,34 +800,34 @@
     </row>
     <row r="9" spans="1:6" ht="21">
       <c r="A9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" ht="21">
       <c r="A10" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>22</v>
@@ -836,10 +836,10 @@
     </row>
     <row r="11" spans="1:6" ht="21">
       <c r="A11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>22</v>
